--- a/Reports/ForPopulation/InformationBillBig/InformationBillBig.xlsx
+++ b/Reports/ForPopulation/InformationBillBig/InformationBillBig.xlsx
@@ -818,78 +818,121 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -899,49 +942,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1246,10 +1246,10 @@
   </sheetPr>
   <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomLeft" activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1270,20 +1270,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1307,20 +1307,20 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="12" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1329,90 +1329,90 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="12" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="N3" s="51" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="53"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="1:24" ht="12" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="78"/>
     </row>
     <row r="5" spans="1:24" ht="12" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="1:24" ht="12" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="78"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -1429,12 +1429,12 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="56"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="78"/>
     </row>
     <row r="8" spans="1:24" ht="12" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -1451,12 +1451,12 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="81"/>
     </row>
     <row r="9" spans="1:24" ht="12" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -1691,75 +1691,75 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="12" customHeight="1">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="66" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="66" t="s">
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="75" t="s">
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="75" t="s">
+      <c r="Q20" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="75" t="s">
+      <c r="R20" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="22.5" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="66" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="66" t="s">
+      <c r="I21" s="52"/>
+      <c r="J21" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="66" t="s">
+      <c r="K21" s="52"/>
+      <c r="L21" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="66" t="s">
+      <c r="M21" s="52"/>
+      <c r="N21" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
     </row>
     <row r="22" spans="1:32" ht="38.25" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="26" t="s">
         <v>18</v>
       </c>
@@ -1796,31 +1796,31 @@
       <c r="O22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
     </row>
     <row r="23" spans="1:32" ht="12" customHeight="1">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="62"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="59"/>
       <c r="U23" s="24" t="s">
         <v>79</v>
       </c>
@@ -1842,12 +1842,12 @@
         <v>93</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="31" t="s">
         <v>95</v>
       </c>
@@ -1896,19 +1896,19 @@
       <c r="Y24" s="33"/>
     </row>
     <row r="25" spans="1:32" ht="12" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="30" t="s">
         <v>116</v>
       </c>
@@ -1965,26 +1965,26 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="12" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="62"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="59"/>
       <c r="U26" s="24" t="s">
         <v>79</v>
       </c>
@@ -2060,19 +2060,19 @@
       <c r="Y27" s="33"/>
     </row>
     <row r="28" spans="1:32" ht="12" customHeight="1">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="30" t="s">
         <v>122</v>
       </c>
@@ -2143,95 +2143,95 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="12" customHeight="1">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="69" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="66" t="s">
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="67"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:32" ht="23.25" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="69" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="71"/>
-      <c r="N31" s="66" t="s">
+      <c r="M31" s="47"/>
+      <c r="N31" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="69" t="s">
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="S31" s="71"/>
+      <c r="S31" s="47"/>
     </row>
     <row r="32" spans="1:32" ht="23.25" customHeight="1">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="66" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="66" t="s">
+      <c r="E32" s="52"/>
+      <c r="F32" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="66" t="s">
+      <c r="G32" s="52"/>
+      <c r="H32" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="67"/>
-      <c r="J32" s="66" t="s">
+      <c r="I32" s="52"/>
+      <c r="J32" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="67"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="66" t="s">
+      <c r="K32" s="52"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="67"/>
-      <c r="P32" s="66" t="s">
+      <c r="O32" s="52"/>
+      <c r="P32" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="74"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="50"/>
       <c r="U32" s="24" t="s">
         <v>82</v>
       </c>
@@ -2245,28 +2245,28 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="80" t="s">
+      <c r="E33" s="44"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="80" t="s">
+      <c r="I33" s="38"/>
+      <c r="J33" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="81"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="38"/>
       <c r="U33" s="20" t="s">
         <v>56</v>
       </c>
@@ -2301,27 +2301,27 @@
       <c r="Z34" s="29"/>
     </row>
     <row r="35" spans="1:30" ht="12" customHeight="1">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
       <c r="U35" s="24" t="s">
         <v>79</v>
       </c>
@@ -2339,34 +2339,34 @@
       <c r="A36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="35" t="s">
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="35" t="s">
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="S36" s="37"/>
+      <c r="S36" s="42"/>
       <c r="U36" s="24" t="s">
         <v>82</v>
       </c>
@@ -2378,34 +2378,34 @@
       <c r="A37" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J37" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="35" t="s">
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="38" t="s">
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="S37" s="39"/>
+      <c r="S37" s="61"/>
       <c r="U37" s="20" t="s">
         <v>56</v>
       </c>
@@ -2427,6 +2427,9 @@
       <c r="AC37" s="20" t="s">
         <v>132</v>
       </c>
+      <c r="AD37" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:30" ht="12" customHeight="1">
       <c r="U38" s="24" t="s">
@@ -2443,148 +2446,148 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="12" customHeight="1">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
     </row>
     <row r="40" spans="1:30" ht="12" customHeight="1">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
     </row>
     <row r="41" spans="1:30" ht="12" customHeight="1">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="1:30" ht="12" customHeight="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
     </row>
     <row r="43" spans="1:30" ht="12" customHeight="1">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
     </row>
     <row r="44" spans="1:30" ht="12" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
     </row>
     <row r="45" spans="1:30" ht="12" customHeight="1">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
     </row>
     <row r="46" spans="1:30" ht="12" customHeight="1">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
       <c r="U46" s="24" t="s">
         <v>82</v>
       </c>
@@ -2608,53 +2611,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A45:K46"/>
-    <mergeCell ref="L45:N46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="L39:N40"/>
-    <mergeCell ref="A41:K42"/>
-    <mergeCell ref="L41:N42"/>
-    <mergeCell ref="A43:K44"/>
-    <mergeCell ref="L43:N44"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H30:K31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L30:S30"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:S32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="J37:L37"/>
     <mergeCell ref="M37:Q37"/>
@@ -2671,6 +2627,53 @@
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="D20:G21"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:K31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L30:S30"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:S32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="A35:S35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A45:K46"/>
+    <mergeCell ref="L45:N46"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="A41:K42"/>
+    <mergeCell ref="L41:N42"/>
+    <mergeCell ref="A43:K44"/>
+    <mergeCell ref="L43:N44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
